--- a/config/project/reliability/reliabilityConfig.xlsx
+++ b/config/project/reliability/reliabilityConfig.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="205">
   <si>
     <t>组序号</t>
   </si>
@@ -1026,14 +1026,6 @@
   <si>
     <t>0x00000000</t>
     <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACW</t>
-    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>DC12V输出对PE工频耐压</t>
@@ -2473,7 +2465,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
@@ -2482,13 +2474,13 @@
         <v>8</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F9" s="5">
         <v>3</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3183,7 +3175,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>192</v>
@@ -3275,10 +3267,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3377,10 +3369,10 @@
         <v>30</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>203</v>
+        <v>26</v>
       </c>
       <c r="C3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -3638,7 +3630,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>26</v>
@@ -3854,11 +3846,6 @@
       </c>
       <c r="T13">
         <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F19" t="s">
-        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/config/project/reliability/reliabilityConfig.xlsx
+++ b/config/project/reliability/reliabilityConfig.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="206">
   <si>
     <t>组序号</t>
   </si>
@@ -1026,6 +1026,10 @@
   <si>
     <t>0x00000000</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>DC12V输出对PE工频耐压</t>
@@ -2465,7 +2469,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
@@ -2474,13 +2478,13 @@
         <v>8</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F9" s="5">
         <v>3</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3175,7 +3179,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>192</v>
@@ -3267,10 +3271,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3630,7 +3634,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>26</v>
@@ -3846,6 +3850,11 @@
       </c>
       <c r="T13">
         <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
